--- a/IMS/App_Data/DataSourceSystem.xlsx
+++ b/IMS/App_Data/DataSourceSystem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Guid</t>
   </si>
@@ -26,6 +26,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>169d4429-c620-40f4-bf07-6cbff57414b7</t>
+  </si>
+  <si>
     <t>病案管理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -34,14 +37,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>169d4429-c620-40f4-bf07-6cbff57414b7</t>
+    <t>超声影像系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b7887b6d-2aaf-4cd9-a411-4d2e398d2af6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +67,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -84,12 +98,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,22 +446,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:B3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -451,20 +469,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
